--- a/Covid en Colombia.xlsx
+++ b/Covid en Colombia.xlsx
@@ -94,10 +94,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,13 +391,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Enfermos</c:v>
+                  <c:v>Recuperados</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Recuperados</c:v>
+                  <c:v>Fallecidos</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Fallecidos</c:v>
+                  <c:v>Enfermos</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1477,53 +1477,56 @@
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>3133</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>509</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>9278</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1">
         <v>12920</v>
       </c>
     </row>
